--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>блок</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>шов</t>
   </si>
@@ -49,6 +46,24 @@
   </si>
   <si>
     <t>надо кг по V</t>
+  </si>
+  <si>
+    <t>фасадный кирпич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V кирпич </t>
+  </si>
+  <si>
+    <t>рядовой кирпич в 1 ряд</t>
+  </si>
+  <si>
+    <t>рядовой кирпич в 2 ряд</t>
+  </si>
+  <si>
+    <t>блок керамический</t>
+  </si>
+  <si>
+    <t>блок газосиликатный</t>
   </si>
 </sst>
 </file>
@@ -73,12 +88,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,9 +120,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -105,6 +145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,459 +440,1004 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>250</v>
+      </c>
+      <c r="B2" s="2">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>380</v>
-      </c>
-      <c r="B2">
-        <v>250</v>
-      </c>
-      <c r="C2">
-        <v>219</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.1000000000000001</v>
+      <c r="E2" s="2">
+        <v>0.5</v>
       </c>
       <c r="F2">
         <f>(A2/1000)*(B2/1000)*(C2/1000)</f>
-        <v>2.0805000000000001E-2</v>
+        <v>9.7499999999999996E-4</v>
       </c>
       <c r="G2">
-        <f>(A2/1000)*(B2/1000)*(D2/1000)</f>
-        <v>1.6150000000000001E-3</v>
+        <f>(A2/1000 + D2/1000 + C2/1000)*(B2/1000)*(D2/1000)</f>
+        <v>1.95E-4</v>
       </c>
       <c r="H2">
         <f>F2+G2</f>
-        <v>2.2420000000000002E-2</v>
+        <v>1.17E-3</v>
       </c>
       <c r="I2">
         <f>1/H2</f>
-        <v>44.603033006244416</v>
+        <v>854.70085470085462</v>
       </c>
       <c r="L2">
         <f>1/G2*E2</f>
-        <v>681.11455108359132</v>
-      </c>
-      <c r="N2">
-        <v>3336</v>
-      </c>
-      <c r="P2">
-        <f>N2*E2</f>
-        <v>3669.6000000000004</v>
-      </c>
-      <c r="S2">
-        <f>G2*N2*L2</f>
-        <v>3669.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>398</v>
-      </c>
-      <c r="B3">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>219</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.1499999999999999</v>
+        <v>2564.102564102564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>250</v>
+      </c>
+      <c r="B3" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.7</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">(A3/1000)*(B3/1000)*(C3/1000)</f>
-        <v>2.1790500000000001E-2</v>
+        <f t="shared" ref="F3:F7" si="0">(A3/1000)*(B3/1000)*(C3/1000)</f>
+        <v>1.3812500000000001E-3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="1">(A3/1000)*(B3/1000)*(D3/1000)</f>
-        <v>1.6915000000000003E-3</v>
+        <f t="shared" ref="G3:G7" si="1">(A3/1000 + D3/1000 + C3/1000)*(B3/1000)*(D3/1000)</f>
+        <v>2.7625000000000002E-4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="2">F3+G3</f>
-        <v>2.3482000000000003E-2</v>
+        <f t="shared" ref="H3:H7" si="2">F3+G3</f>
+        <v>1.6575000000000001E-3</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="3">1/H3</f>
-        <v>42.585810407972062</v>
+        <f t="shared" ref="I3:I7" si="3">1/H3</f>
+        <v>603.31825037707381</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L5" si="4">1/G3*E3</f>
-        <v>679.86993792491853</v>
-      </c>
-      <c r="N3">
-        <v>3329</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P5" si="5">N3*E3</f>
-        <v>3828.35</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S5" si="6">G3*N3*L3</f>
-        <v>3828.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>440</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4">
-        <v>219</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.3</v>
+        <f t="shared" ref="L3:L7" si="4">1/G3*E3</f>
+        <v>2533.93665158371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>250</v>
+      </c>
+      <c r="B4" s="2">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.9</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2.409E-2</v>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.8700000000000001E-3</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>2.596E-2</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>38.52080123266564</v>
+        <v>427.35042735042731</v>
       </c>
       <c r="L4">
         <f t="shared" si="4"/>
-        <v>695.18716577540113</v>
-      </c>
-      <c r="N4">
-        <v>3312</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
-        <v>4305.6000000000004</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="6"/>
-        <v>4305.6000000000013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>510</v>
-      </c>
-      <c r="B5">
-        <v>250</v>
-      </c>
-      <c r="C5">
-        <v>219</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.5</v>
+        <v>2307.6923076923076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>240</v>
+      </c>
+      <c r="B5" s="2">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.9</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2.7922499999999999E-2</v>
+        <v>1.9595999999999997E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>2.1675000000000002E-3</v>
+        <v>3.6915000000000006E-4</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>3.0089999999999999E-2</v>
+        <v>2.3287499999999997E-3</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>33.23363243602526</v>
+        <v>429.41492216854544</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
+        <v>2438.0333197887035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>250</v>
+      </c>
+      <c r="B6" s="2">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.6399999999999996E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4.1760000000000001E-4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>3.0575999999999997E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>327.05389848246995</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2394.6360153256705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>210</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.3650000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <f>(A7/1000 + D7/1000 + C7/1000)*(B7/1000)*(D7/1000)</f>
+        <v>2.8500000000000004E-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.6500000000000002E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>606.06060606060601</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>2456.1403508771928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>250</v>
+      </c>
+      <c r="B12" s="2">
+        <v>120</v>
+      </c>
+      <c r="C12" s="2">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>250</v>
+      </c>
+      <c r="B13" s="2">
+        <v>120</v>
+      </c>
+      <c r="C13" s="2">
+        <v>140</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>250</v>
+      </c>
+      <c r="B16" s="2">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>250</v>
+      </c>
+      <c r="B17" s="2">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>380</v>
+      </c>
+      <c r="B21">
+        <v>250</v>
+      </c>
+      <c r="C21">
+        <v>219</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21">
+        <f>(A21/1000)*(B21/1000)*(C21/1000)</f>
+        <v>2.0805000000000001E-2</v>
+      </c>
+      <c r="G21">
+        <f>(A21/1000)*(B21/1000)*(D21/1000)</f>
+        <v>1.6150000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <f>F21+G21</f>
+        <v>2.2420000000000002E-2</v>
+      </c>
+      <c r="I21">
+        <f>1/H21</f>
+        <v>44.603033006244416</v>
+      </c>
+      <c r="L21">
+        <f>1/G21*E21</f>
+        <v>681.11455108359132</v>
+      </c>
+      <c r="N21">
+        <v>3336</v>
+      </c>
+      <c r="P21">
+        <f>N21*E21</f>
+        <v>3669.6000000000004</v>
+      </c>
+      <c r="S21">
+        <f>G21*N21*L21</f>
+        <v>3669.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>398</v>
+      </c>
+      <c r="B22">
+        <v>250</v>
+      </c>
+      <c r="C22">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F24" si="5">(A22/1000)*(B22/1000)*(C22/1000)</f>
+        <v>2.1790500000000001E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G24" si="6">(A22/1000)*(B22/1000)*(D22/1000)</f>
+        <v>1.6915000000000003E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H24" si="7">F22+G22</f>
+        <v>2.3482000000000003E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I32" si="8">1/H22</f>
+        <v>42.585810407972062</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L32" si="9">1/G22*E22</f>
+        <v>679.86993792491853</v>
+      </c>
+      <c r="N22">
+        <v>3329</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P24" si="10">N22*E22</f>
+        <v>3828.35</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S24" si="11">G22*N22*L22</f>
+        <v>3828.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>440</v>
+      </c>
+      <c r="B23">
+        <v>250</v>
+      </c>
+      <c r="C23">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>2.409E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>1.8700000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>2.596E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>38.52080123266564</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>695.18716577540113</v>
+      </c>
+      <c r="N23">
+        <v>3312</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>4305.6000000000004</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="11"/>
+        <v>4305.6000000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>510</v>
+      </c>
+      <c r="B24">
+        <v>250</v>
+      </c>
+      <c r="C24">
+        <v>219</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>2.7922499999999999E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>2.1675000000000002E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>3.0089999999999999E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>33.23363243602526</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
         <v>692.0415224913495</v>
       </c>
-      <c r="N5">
+      <c r="N24">
         <v>3283</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
+      <c r="P24">
+        <f t="shared" si="10"/>
         <v>4924.5</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="6"/>
+      <c r="S24">
+        <f t="shared" si="11"/>
         <v>4924.5000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>625</v>
       </c>
-      <c r="B8">
-        <v>250</v>
-      </c>
-      <c r="C8">
-        <v>250</v>
-      </c>
-      <c r="D8">
+      <c r="B28">
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <v>250</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F6:F12" si="7">(A8/1000)*(B8/1000)*(C8/1000)</f>
+      <c r="E28">
+        <f>25/I28</f>
+        <v>0.99302499999999994</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F32" si="12">(A28/1000)*(B28/1000)*(C28/1000)</f>
         <v>3.90625E-2</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G6:G12" si="8">(A8/1000)*(B8/1000)*(D8/1000)</f>
-        <v>4.6874999999999998E-4</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H6:H12" si="9">F8+G8</f>
-        <v>3.9531249999999997E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>25.296442687747039</v>
-      </c>
-      <c r="N8">
+      <c r="G28" s="8">
+        <f t="shared" ref="G28:G32" si="13">(A28/1000 + D28/1000 + C28/1000)*(B28/1000)*(D28/1000)</f>
+        <v>6.5850000000000001E-4</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H32" si="14">F28+G28</f>
+        <v>3.9720999999999999E-2</v>
+      </c>
+      <c r="I28">
+        <f>1/H28</f>
+        <v>25.175599808665442</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>1508.0106302201973</v>
+      </c>
+      <c r="N28">
         <v>1258</v>
       </c>
-      <c r="P8">
-        <f t="shared" ref="P6:P12" si="10">N8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ref="S6:S12" si="11">G8*N8*L8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="P28">
+        <f t="shared" ref="P28:P32" si="15">N28*E28</f>
+        <v>1249.2254499999999</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S32" si="16">G28*N28*L28</f>
+        <v>1249.2254499999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>625</v>
       </c>
-      <c r="B9">
+      <c r="B29">
         <v>300</v>
       </c>
-      <c r="C9">
-        <v>250</v>
-      </c>
-      <c r="D9">
+      <c r="C29">
+        <v>250</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="E9">
-        <f>L9*G9</f>
-        <v>1.4062500000000002E-2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="7"/>
+      <c r="E29">
+        <f t="shared" ref="E29:E32" si="17">25/I29</f>
+        <v>1.19163</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="12"/>
         <v>4.6875E-2</v>
       </c>
-      <c r="G9">
+      <c r="G29" s="8">
+        <f t="shared" si="13"/>
+        <v>7.9019999999999991E-4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="14"/>
+        <v>4.7665199999999998E-2</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="8"/>
-        <v>5.6250000000000007E-4</v>
-      </c>
-      <c r="H9">
+        <v>20.979666507221204</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="9"/>
-        <v>4.74375E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>21.080368906455863</v>
-      </c>
-      <c r="L9">
-        <v>25</v>
-      </c>
-      <c r="N9">
+        <v>1508.0106302201978</v>
+      </c>
+      <c r="N29">
         <v>1251</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="10"/>
-        <v>17.592187500000001</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="11"/>
-        <v>17.592187500000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="P29">
+        <f t="shared" si="15"/>
+        <v>1490.7291299999999</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="16"/>
+        <v>1490.7291300000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>625</v>
       </c>
-      <c r="B10">
+      <c r="B30" s="7">
         <v>375</v>
       </c>
-      <c r="C10">
-        <v>250</v>
-      </c>
-      <c r="D10">
+      <c r="C30" s="7">
+        <v>250</v>
+      </c>
+      <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="7"/>
+      <c r="E30" s="7">
+        <f>25/I30</f>
+        <v>1.4895375</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="12"/>
         <v>5.859375E-2</v>
       </c>
-      <c r="G10">
+      <c r="G30" s="7">
+        <f>(A30/1000 + D30/1000 + C30/1000)*(B30/1000)*(D30/1000)</f>
+        <v>9.8774999999999991E-4</v>
+      </c>
+      <c r="H30" s="7">
+        <f>F30+G30</f>
+        <v>5.9581500000000003E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <f>1/H30</f>
+        <v>16.783733205776961</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
+        <f>1/G30*E30</f>
+        <v>1508.0106302201975</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7">
+        <v>1239</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
+        <f t="shared" si="15"/>
+        <v>1845.5369624999998</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7">
+        <f t="shared" si="16"/>
+        <v>1845.5369625000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>625</v>
+      </c>
+      <c r="B31">
+        <v>400</v>
+      </c>
+      <c r="C31">
+        <v>250</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="17"/>
+        <v>1.58884</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="12"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="13"/>
+        <v>1.0536E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="14"/>
+        <v>6.3553600000000002E-2</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="8"/>
-        <v>7.0312499999999997E-4</v>
-      </c>
-      <c r="H10">
+        <v>15.734749880415901</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="9"/>
-        <v>5.9296874999999999E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>16.864295125164691</v>
-      </c>
-      <c r="N10">
-        <v>1239</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>1508.0106302201975</v>
+      </c>
+      <c r="N31">
+        <v>1236</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="15"/>
+        <v>1963.8062400000001</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="16"/>
+        <v>1963.8062400000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>625</v>
       </c>
-      <c r="B11">
-        <v>400</v>
-      </c>
-      <c r="C11">
-        <v>250</v>
-      </c>
-      <c r="D11">
+      <c r="B32">
+        <v>500</v>
+      </c>
+      <c r="C32">
+        <v>250</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G11">
+      <c r="E32">
+        <f t="shared" si="17"/>
+        <v>1.9860499999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="12"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="13"/>
+        <v>1.317E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="14"/>
+        <v>7.9441999999999999E-2</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="8"/>
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="H11">
+        <v>12.587799904332721</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="9"/>
-        <v>6.3250000000000001E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>15.810276679841897</v>
-      </c>
-      <c r="N11">
-        <v>1236</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>625</v>
-      </c>
-      <c r="B12">
-        <v>500</v>
-      </c>
-      <c r="C12">
-        <v>250</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="7"/>
-        <v>7.8125E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="8"/>
-        <v>9.3749999999999997E-4</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="9"/>
-        <v>7.9062499999999994E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>12.648221343873519</v>
-      </c>
-      <c r="N12">
+        <v>1508.0106302201973</v>
+      </c>
+      <c r="N32">
         <v>1221</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="P32">
+        <f t="shared" si="15"/>
+        <v>2424.9670499999997</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="16"/>
+        <v>2424.9670499999997</v>
       </c>
     </row>
   </sheetData>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -557,7 +557,7 @@
         <v>1.3812500000000001E-3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">(A3/1000 + D3/1000 + C3/1000)*(B3/1000)*(D3/1000)</f>
+        <f t="shared" ref="G3:G6" si="1">(A3/1000 + D3/1000 + C3/1000)*(B3/1000)*(D3/1000)</f>
         <v>2.7625000000000002E-4</v>
       </c>
       <c r="H3">

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -442,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
